--- a/中移7月1日-8月15日带宽数据.xlsx
+++ b/中移7月1日-8月15日带宽数据.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>MM商城</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>带宽峰值（Gb)</t>
-  </si>
-  <si>
-    <t>回源峰值（Gb)</t>
   </si>
   <si>
     <t>节点存储大小（T）</t>
@@ -136,13 +133,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,36 +150,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,19 +195,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,29 +240,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,6 +303,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -339,138 +465,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -494,7 +488,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -532,11 +526,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -566,71 +562,23 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,16 +604,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,6 +650,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -686,10 +673,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -698,133 +685,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -844,9 +831,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -856,14 +840,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1214,413 +1203,842 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="3" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
-    <col min="9" max="9" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="9" max="9" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1" spans="1:9">
+    <row r="1" ht="23" customHeight="1" spans="1:10">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
       <c r="I1" s="11"/>
-    </row>
-    <row r="2" ht="21" customHeight="1" spans="1:9">
-      <c r="A2" s="6" t="s">
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" ht="21" customHeight="1" spans="1:10">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="B3" s="9">
+        <v>0.69686925</v>
+      </c>
+      <c r="C3">
+        <v>1.35</v>
+      </c>
+      <c r="D3">
+        <v>89</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.678786418276973</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1.31</v>
+      </c>
+      <c r="G3">
+        <v>69</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10">
-        <v>346204.6434</v>
-      </c>
-      <c r="F3" s="10">
-        <v>337221.0926</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="B4" s="9">
+        <v>0.461868750603865</v>
+      </c>
+      <c r="C4">
+        <v>1.02</v>
+      </c>
+      <c r="D4">
+        <v>81</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.454658151570048</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.94</v>
+      </c>
+      <c r="G4">
+        <v>61</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10">
-        <v>229456.3953</v>
-      </c>
-      <c r="F4" s="10">
-        <v>225874.1697</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="B5" s="9">
+        <v>0.382580947061192</v>
+      </c>
+      <c r="C5">
+        <v>0.91</v>
+      </c>
+      <c r="D5">
+        <v>74</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.377102736714976</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.83</v>
+      </c>
+      <c r="G5">
+        <v>54</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="10">
-        <v>190066.2145</v>
-      </c>
-      <c r="F5" s="10">
-        <v>187344.6396</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="B6" s="9">
+        <v>0.448537501207729</v>
+      </c>
+      <c r="C6">
+        <v>1.19</v>
+      </c>
+      <c r="D6">
+        <v>69</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.442221764492754</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1.11</v>
+      </c>
+      <c r="G6">
+        <v>49</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10">
-        <v>222833.4306</v>
-      </c>
-      <c r="F6" s="10">
-        <v>219695.7726</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="B7" s="9">
+        <v>0.395690470813205</v>
+      </c>
+      <c r="C7">
+        <v>0.87</v>
+      </c>
+      <c r="D7">
+        <v>84</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.389494303542673</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="G7">
+        <v>64</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="10">
-        <v>196579.0259</v>
-      </c>
-      <c r="F7" s="10">
-        <v>193500.77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="B8" s="9">
+        <v>0.425176321658615</v>
+      </c>
+      <c r="C8">
+        <v>0.91</v>
+      </c>
+      <c r="D8">
+        <v>85</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.418032303341385</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.83</v>
+      </c>
+      <c r="G8">
+        <v>65</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="10">
-        <v>211227.5966</v>
-      </c>
-      <c r="F8" s="10">
-        <v>207678.4483</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="B9" s="9">
+        <v>0.380758438204509</v>
+      </c>
+      <c r="C9">
+        <v>0.9</v>
+      </c>
+      <c r="D9">
+        <v>86</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.373458250402576</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.82</v>
+      </c>
+      <c r="G9">
+        <v>66</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="10">
-        <v>189160.7921</v>
-      </c>
-      <c r="F9" s="10">
-        <v>185534.0588</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="B10" s="9">
+        <v>0.176753933172303</v>
+      </c>
+      <c r="C10">
+        <v>0.64</v>
+      </c>
+      <c r="D10">
+        <v>87</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.172714550925926</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.56</v>
+      </c>
+      <c r="G10">
+        <v>67</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="10">
-        <v>87811.354</v>
-      </c>
-      <c r="F10" s="10">
-        <v>85804.5889</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="B11" s="9">
+        <v>0.168791095611916</v>
+      </c>
+      <c r="C11">
+        <v>0.53</v>
+      </c>
+      <c r="D11">
+        <v>88</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.166042239533011</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="G11">
+        <v>68</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="10">
-        <v>83855.4163</v>
-      </c>
-      <c r="F11" s="10">
-        <v>82489.7846</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="B12" s="9">
+        <v>0.253008792270531</v>
+      </c>
+      <c r="C12">
+        <v>0.7</v>
+      </c>
+      <c r="D12">
+        <v>89</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.248874912037037</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.62</v>
+      </c>
+      <c r="G12">
+        <v>69</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="10">
-        <v>125694.768</v>
-      </c>
-      <c r="F12" s="10">
-        <v>123641.0563</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
+      <c r="B13" s="9">
+        <v>0.156249612520129</v>
+      </c>
+      <c r="C13">
+        <v>0.45</v>
+      </c>
+      <c r="D13">
+        <v>84</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.153527269122383</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.37</v>
+      </c>
+      <c r="G13">
+        <v>64</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="10">
-        <v>77624.8075</v>
-      </c>
-      <c r="F13" s="10">
-        <v>76272.3473</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
+      <c r="B14" s="9">
+        <v>0.171738021537842</v>
+      </c>
+      <c r="C14">
+        <v>0.51</v>
+      </c>
+      <c r="D14">
+        <v>81</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.168513988123994</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0.43</v>
+      </c>
+      <c r="G14">
+        <v>61</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="10">
-        <v>85319.4491</v>
-      </c>
-      <c r="F14" s="10">
-        <v>83717.7493</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
+      <c r="B15" s="9">
+        <v>0.142620895732689</v>
+      </c>
+      <c r="C15">
+        <v>0.7</v>
+      </c>
+      <c r="D15">
+        <v>82</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.136191968196457</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0.62</v>
+      </c>
+      <c r="G15">
+        <v>62</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="10">
-        <v>70854.061</v>
-      </c>
-      <c r="F15" s="10">
-        <v>67660.1698</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
+      <c r="B16" s="9">
+        <v>0.112609375603865</v>
+      </c>
+      <c r="C16">
+        <v>0.36</v>
+      </c>
+      <c r="D16">
+        <v>73</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.108417892310789</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0.28</v>
+      </c>
+      <c r="G16">
+        <v>53</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="10">
-        <v>55944.3378</v>
-      </c>
-      <c r="F16" s="10">
-        <v>53862.0089</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
+      <c r="B17" s="9">
+        <v>0.109424301529791</v>
+      </c>
+      <c r="C17">
+        <v>0.46</v>
+      </c>
+      <c r="D17">
+        <v>89</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.106582578703704</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0.38</v>
+      </c>
+      <c r="G17">
+        <v>69</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="10">
-        <v>54361.993</v>
-      </c>
-      <c r="F17" s="10">
-        <v>52950.2251</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
+      <c r="B18" s="9">
+        <v>0.124507161231884</v>
+      </c>
+      <c r="C18">
+        <v>0.37</v>
+      </c>
+      <c r="D18">
+        <v>79</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0.122332803542673</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.29</v>
+      </c>
+      <c r="G18">
+        <v>59</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="10">
-        <v>61855.1577</v>
-      </c>
-      <c r="F18" s="10">
-        <v>60774.9368</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
+      <c r="B19" s="9">
+        <v>0.0849943647342995</v>
+      </c>
+      <c r="C19">
+        <v>0.33</v>
+      </c>
+      <c r="D19">
+        <v>83</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0.0823268975442834</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="G19">
+        <v>63</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="10">
-        <v>42225.2004</v>
-      </c>
-      <c r="F19" s="10">
-        <v>40900.0027</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
+      <c r="B20" s="9">
+        <v>0.0872224194847021</v>
+      </c>
+      <c r="C20">
+        <v>0.32</v>
+      </c>
+      <c r="D20">
+        <v>78</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0.0855921980676329</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0.24</v>
+      </c>
+      <c r="G20">
+        <v>58</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="10">
-        <v>43332.098</v>
-      </c>
-      <c r="F20" s="10">
-        <v>42522.204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
+      <c r="B21" s="9">
+        <v>0.0634710489130435</v>
+      </c>
+      <c r="C21">
+        <v>0.26</v>
+      </c>
+      <c r="D21">
+        <v>76</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.0625553862721417</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0.18</v>
+      </c>
+      <c r="G21">
+        <v>56</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="10">
-        <v>31532.4171</v>
-      </c>
-      <c r="F21" s="10">
-        <v>31077.5159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
+      <c r="B22" s="9">
+        <v>0.0665459454508857</v>
+      </c>
+      <c r="C22">
+        <v>0.25</v>
+      </c>
+      <c r="D22">
+        <v>71</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.0652218558776168</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0.17</v>
+      </c>
+      <c r="G22">
+        <v>51</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="10">
-        <v>33060.0257</v>
-      </c>
-      <c r="F22" s="10">
-        <v>32402.218</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
+      <c r="B23" s="9">
+        <v>0.0564071372785829</v>
+      </c>
+      <c r="C23">
+        <v>0.3</v>
+      </c>
+      <c r="D23">
+        <v>80</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0.0551263490338164</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0.22</v>
+      </c>
+      <c r="G23">
+        <v>60</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="10">
-        <v>28023.0658</v>
-      </c>
-      <c r="F23" s="10">
-        <v>27386.7702</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
+      <c r="B24" s="9">
+        <v>0.0397015722624799</v>
+      </c>
+      <c r="C24">
+        <v>0.2</v>
+      </c>
+      <c r="D24">
+        <v>76</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0.0388553913043478</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="G24">
+        <v>56</v>
+      </c>
+      <c r="I24" s="10"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="10">
-        <v>19723.7411</v>
-      </c>
-      <c r="F24" s="10">
-        <v>19303.3584</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
+      <c r="B25" s="9">
+        <v>0.0402047256441224</v>
+      </c>
+      <c r="C25">
+        <v>0.16</v>
+      </c>
+      <c r="D25">
+        <v>75</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0.0389029754428341</v>
+      </c>
+      <c r="F25" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="G25">
+        <v>55</v>
+      </c>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="10">
-        <v>19973.7077</v>
-      </c>
-      <c r="F25" s="10">
-        <v>19326.9982</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
+      <c r="B26" s="9">
+        <v>0.0510595167069243</v>
+      </c>
+      <c r="C26">
+        <v>0.3</v>
+      </c>
+      <c r="D26">
+        <v>73</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0.0496219277375201</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0.22</v>
+      </c>
+      <c r="G26">
+        <v>53</v>
+      </c>
+      <c r="I26" s="10"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="10">
-        <v>25366.3679</v>
-      </c>
-      <c r="F26" s="10">
-        <v>24652.1737</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
+      <c r="B27" s="9">
+        <v>0.0411458321256039</v>
+      </c>
+      <c r="C27">
+        <v>0.2</v>
+      </c>
+      <c r="D27">
+        <v>83</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0.0400792520128824</v>
+      </c>
+      <c r="F27" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="G27">
+        <v>63</v>
+      </c>
+      <c r="I27" s="10"/>
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="10">
-        <v>20441.2494</v>
-      </c>
-      <c r="F27" s="10">
-        <v>19911.3724</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
+      <c r="B28" s="9">
+        <v>0.0353223572866345</v>
+      </c>
+      <c r="C28">
+        <v>0.22</v>
+      </c>
+      <c r="D28">
+        <v>80</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0.0350638206521739</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0.14</v>
+      </c>
+      <c r="G28">
+        <v>60</v>
+      </c>
+      <c r="I28" s="10"/>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="10">
-        <v>17548.1471</v>
-      </c>
-      <c r="F28" s="10">
-        <v>17419.7061</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
+      <c r="B29" s="9">
+        <v>0.0117993311191626</v>
+      </c>
+      <c r="C29">
+        <v>0.14</v>
+      </c>
+      <c r="D29">
+        <v>89</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0.0114216109098229</v>
+      </c>
+      <c r="F29" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="G29">
+        <v>69</v>
+      </c>
+      <c r="I29" s="10"/>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="10">
-        <v>5861.9077</v>
-      </c>
-      <c r="F29" s="10">
-        <v>5674.2563</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
+      <c r="B30" s="9">
+        <v>0.0366518488325282</v>
+      </c>
+      <c r="C30">
+        <v>0.21</v>
+      </c>
+      <c r="D30">
+        <v>70</v>
+      </c>
+      <c r="E30" s="9">
+        <v>0.0360445060386473</v>
+      </c>
+      <c r="F30" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="G30">
+        <v>50</v>
+      </c>
+      <c r="I30" s="10"/>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="10">
-        <v>18208.6385</v>
-      </c>
-      <c r="F30" s="10">
-        <v>17906.9106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
+      <c r="B31" s="9">
+        <v>0.0177484643719807</v>
+      </c>
+      <c r="C31">
+        <v>0.2</v>
+      </c>
+      <c r="D31">
+        <v>78</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0.0174557342995169</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="G31">
+        <v>58</v>
+      </c>
+      <c r="I31" s="10"/>
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="10">
-        <v>8817.4371</v>
-      </c>
-      <c r="F31" s="10">
-        <v>8672.0088</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
+      <c r="B32" s="9">
+        <v>0.0149039863123994</v>
+      </c>
+      <c r="C32">
+        <v>0.14</v>
+      </c>
+      <c r="D32">
+        <v>71</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0.014527479468599</v>
+      </c>
+      <c r="F32" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="G32">
+        <v>51</v>
+      </c>
+      <c r="I32" s="10"/>
+      <c r="J32" s="11"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="10">
-        <v>7404.3004</v>
-      </c>
-      <c r="F32" s="10">
-        <v>7217.2518</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33">
-        <v>1646.53</v>
-      </c>
-      <c r="F33">
-        <v>1605.7591</v>
-      </c>
+      <c r="B33" s="9">
+        <v>0.00331427133655395</v>
+      </c>
+      <c r="C33">
+        <v>0.18</v>
+      </c>
+      <c r="D33">
+        <v>68</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0.00323220430756844</v>
+      </c>
+      <c r="F33" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G33">
+        <v>58</v>
+      </c>
+      <c r="I33" s="10"/>
+      <c r="J33" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/中移7月1日-8月15日带宽数据.xlsx
+++ b/中移7月1日-8月15日带宽数据.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>MM商城</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>节点存储大小（T）</t>
+  </si>
+  <si>
+    <t>地区（全网）</t>
   </si>
   <si>
     <t>广东</t>
@@ -134,14 +137,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,7 +154,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,31 +227,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,19 +267,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,32 +296,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,7 +312,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,7 +342,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,13 +426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,13 +438,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,91 +456,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,13 +486,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,17 +577,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,40 +652,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,21 +674,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -673,10 +682,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,137 +694,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -831,6 +840,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="34">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -852,8 +864,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1203,10 +1236,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1214,13 +1247,21 @@
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="3" width="14.375" customWidth="1"/>
     <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="14.375" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="8" width="20.5" customWidth="1"/>
     <col min="9" max="9" width="17.375" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="14.625" customWidth="1"/>
+    <col min="12" max="12" width="18.5" customWidth="1"/>
+    <col min="13" max="13" width="14.25" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="18" customWidth="1"/>
+    <col min="17" max="17" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1" spans="1:10">
+    <row r="1" ht="23" customHeight="1" spans="1:15">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1232,39 +1273,69 @@
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-    </row>
-    <row r="2" ht="21" customHeight="1" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="H1" s="5"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="4"/>
+    </row>
+    <row r="2" ht="21" customHeight="1" spans="1:15">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="H2" s="5"/>
+      <c r="I2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="9">
+        <v>7</v>
+      </c>
+      <c r="B3" s="10">
         <v>0.69686925</v>
       </c>
       <c r="C3">
@@ -1273,23 +1344,43 @@
       <c r="D3">
         <v>89</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="10">
         <v>0.678786418276973</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="11">
         <v>1.31</v>
       </c>
       <c r="G3">
         <v>69</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="H3" s="5"/>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="10">
+        <v>1.34345368760064</v>
+      </c>
+      <c r="K3" s="11">
+        <v>3.27</v>
+      </c>
+      <c r="L3">
+        <v>89</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0.678786418276973</v>
+      </c>
+      <c r="N3" s="11">
+        <v>3.13</v>
+      </c>
+      <c r="O3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="9">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10">
         <v>0.461868750603865</v>
       </c>
       <c r="C4">
@@ -1298,23 +1389,43 @@
       <c r="D4">
         <v>81</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="10">
         <v>0.454658151570048</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="11">
         <v>0.94</v>
       </c>
       <c r="G4">
         <v>61</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="H4" s="5"/>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0.614062512077295</v>
+      </c>
+      <c r="K4" s="11">
+        <v>1.84</v>
+      </c>
+      <c r="L4">
+        <v>81</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0.454658151570048</v>
+      </c>
+      <c r="N4" s="11">
+        <v>1.78</v>
+      </c>
+      <c r="O4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="9">
+        <v>9</v>
+      </c>
+      <c r="B5" s="10">
         <v>0.382580947061192</v>
       </c>
       <c r="C5">
@@ -1323,23 +1434,43 @@
       <c r="D5">
         <v>74</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="10">
         <v>0.377102736714976</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="11">
         <v>0.83</v>
       </c>
       <c r="G5">
         <v>54</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="H5" s="5"/>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.407863985507246</v>
+      </c>
+      <c r="K5" s="11">
+        <v>1.91</v>
+      </c>
+      <c r="L5">
+        <v>74</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0.377102736714976</v>
+      </c>
+      <c r="N5" s="11">
+        <v>1.63</v>
+      </c>
+      <c r="O5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="9">
+        <v>10</v>
+      </c>
+      <c r="B6" s="10">
         <v>0.448537501207729</v>
       </c>
       <c r="C6">
@@ -1348,23 +1479,43 @@
       <c r="D6">
         <v>69</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="10">
         <v>0.442221764492754</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="11">
         <v>1.11</v>
       </c>
       <c r="G6">
         <v>49</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="H6" s="5"/>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0.515112999194847</v>
+      </c>
+      <c r="K6" s="11">
+        <v>1.67</v>
+      </c>
+      <c r="L6">
+        <v>69</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0.442221764492754</v>
+      </c>
+      <c r="N6" s="11">
+        <v>1.31</v>
+      </c>
+      <c r="O6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="9">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10">
         <v>0.395690470813205</v>
       </c>
       <c r="C7">
@@ -1373,23 +1524,43 @@
       <c r="D7">
         <v>84</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="10">
         <v>0.389494303542673</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="11">
         <v>0.79</v>
       </c>
       <c r="G7">
         <v>64</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="H7" s="5"/>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0.41117652173913</v>
+      </c>
+      <c r="K7" s="11">
+        <v>1.71</v>
+      </c>
+      <c r="L7">
+        <v>84</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0.389494303542673</v>
+      </c>
+      <c r="N7" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="O7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="9">
+        <v>12</v>
+      </c>
+      <c r="B8" s="10">
         <v>0.425176321658615</v>
       </c>
       <c r="C8">
@@ -1398,23 +1569,43 @@
       <c r="D8">
         <v>85</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="10">
         <v>0.418032303341385</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="11">
         <v>0.83</v>
       </c>
       <c r="G8">
         <v>65</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="H8" s="5"/>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0.467868156199678</v>
+      </c>
+      <c r="K8" s="11">
+        <v>1.32</v>
+      </c>
+      <c r="L8">
+        <v>85</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0.418032303341385</v>
+      </c>
+      <c r="N8" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="O8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="9">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10">
         <v>0.380758438204509</v>
       </c>
       <c r="C9">
@@ -1423,23 +1614,43 @@
       <c r="D9">
         <v>86</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="10">
         <v>0.373458250402576</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="11">
         <v>0.82</v>
       </c>
       <c r="G9">
         <v>66</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="H9" s="5"/>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0.398879388083736</v>
+      </c>
+      <c r="K9" s="11">
+        <v>1.33</v>
+      </c>
+      <c r="L9">
+        <v>86</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0.373458250402576</v>
+      </c>
+      <c r="N9" s="11">
+        <v>1.23</v>
+      </c>
+      <c r="O9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="9">
+        <v>14</v>
+      </c>
+      <c r="B10" s="10">
         <v>0.176753933172303</v>
       </c>
       <c r="C10">
@@ -1448,23 +1659,43 @@
       <c r="D10">
         <v>87</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="10">
         <v>0.172714550925926</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="11">
         <v>0.56</v>
       </c>
       <c r="G10">
         <v>67</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="H10" s="5"/>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0.259213208534622</v>
+      </c>
+      <c r="K10" s="11">
+        <v>1.25</v>
+      </c>
+      <c r="L10">
+        <v>87</v>
+      </c>
+      <c r="M10" s="10">
+        <v>0.172714550925926</v>
+      </c>
+      <c r="N10" s="11">
+        <v>1.21</v>
+      </c>
+      <c r="O10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="9">
+        <v>15</v>
+      </c>
+      <c r="B11" s="10">
         <v>0.168791095611916</v>
       </c>
       <c r="C11">
@@ -1473,23 +1704,43 @@
       <c r="D11">
         <v>88</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="10">
         <v>0.166042239533011</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="11">
         <v>0.45</v>
       </c>
       <c r="G11">
         <v>68</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="H11" s="5"/>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0.328942874396135</v>
+      </c>
+      <c r="K11" s="11">
+        <v>1.26</v>
+      </c>
+      <c r="L11">
+        <v>88</v>
+      </c>
+      <c r="M11" s="10">
+        <v>0.166042239533011</v>
+      </c>
+      <c r="N11" s="11">
+        <v>1.22</v>
+      </c>
+      <c r="O11">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="9">
+        <v>16</v>
+      </c>
+      <c r="B12" s="10">
         <v>0.253008792270531</v>
       </c>
       <c r="C12">
@@ -1498,23 +1749,43 @@
       <c r="D12">
         <v>89</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="10">
         <v>0.248874912037037</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="11">
         <v>0.62</v>
       </c>
       <c r="G12">
         <v>69</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="H12" s="5"/>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="10">
+        <v>0.334422594605475</v>
+      </c>
+      <c r="K12" s="11">
+        <v>0.99</v>
+      </c>
+      <c r="L12">
+        <v>89</v>
+      </c>
+      <c r="M12" s="10">
+        <v>0.248874912037037</v>
+      </c>
+      <c r="N12" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="O12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="9">
+        <v>17</v>
+      </c>
+      <c r="B13" s="10">
         <v>0.156249612520129</v>
       </c>
       <c r="C13">
@@ -1523,23 +1794,43 @@
       <c r="D13">
         <v>84</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="10">
         <v>0.153527269122383</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="11">
         <v>0.37</v>
       </c>
       <c r="G13">
         <v>64</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="H13" s="5"/>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0.298052866344605</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0.89</v>
+      </c>
+      <c r="L13">
+        <v>84</v>
+      </c>
+      <c r="M13" s="10">
+        <v>0.153527269122383</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="O13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="9">
+        <v>18</v>
+      </c>
+      <c r="B14" s="10">
         <v>0.171738021537842</v>
       </c>
       <c r="C14">
@@ -1548,23 +1839,43 @@
       <c r="D14">
         <v>81</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="10">
         <v>0.168513988123994</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="11">
         <v>0.43</v>
       </c>
       <c r="G14">
         <v>61</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="H14" s="5"/>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="10">
+        <v>0.259340938003221</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0.81</v>
+      </c>
+      <c r="L14">
+        <v>81</v>
+      </c>
+      <c r="M14" s="10">
+        <v>0.168513988123994</v>
+      </c>
+      <c r="N14" s="11">
+        <v>0.77</v>
+      </c>
+      <c r="O14">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="9">
+        <v>19</v>
+      </c>
+      <c r="B15" s="10">
         <v>0.142620895732689</v>
       </c>
       <c r="C15">
@@ -1573,23 +1884,43 @@
       <c r="D15">
         <v>82</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="10">
         <v>0.136191968196457</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="11">
         <v>0.62</v>
       </c>
       <c r="G15">
         <v>62</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="H15" s="5"/>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="10">
+        <v>0.308243945249597</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0.81</v>
+      </c>
+      <c r="L15">
+        <v>82</v>
+      </c>
+      <c r="M15" s="10">
+        <v>0.136191968196457</v>
+      </c>
+      <c r="N15" s="11">
+        <v>0.78</v>
+      </c>
+      <c r="O15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="9">
+        <v>20</v>
+      </c>
+      <c r="B16" s="10">
         <v>0.112609375603865</v>
       </c>
       <c r="C16">
@@ -1598,23 +1929,43 @@
       <c r="D16">
         <v>73</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="10">
         <v>0.108417892310789</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="11">
         <v>0.28</v>
       </c>
       <c r="G16">
         <v>53</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="H16" s="5"/>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="10">
+        <v>0.274541411030596</v>
+      </c>
+      <c r="K16" s="11">
+        <v>0.81</v>
+      </c>
+      <c r="L16">
+        <v>73</v>
+      </c>
+      <c r="M16" s="10">
+        <v>0.108417892310789</v>
+      </c>
+      <c r="N16" s="11">
+        <v>0.76</v>
+      </c>
+      <c r="O16">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="9">
+        <v>21</v>
+      </c>
+      <c r="B17" s="10">
         <v>0.109424301529791</v>
       </c>
       <c r="C17">
@@ -1623,23 +1974,43 @@
       <c r="D17">
         <v>89</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="10">
         <v>0.106582578703704</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="11">
         <v>0.38</v>
       </c>
       <c r="G17">
         <v>69</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="H17" s="5"/>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="10">
+        <v>0.267229098228663</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="L17">
+        <v>89</v>
+      </c>
+      <c r="M17" s="10">
+        <v>0.106582578703704</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0.38</v>
+      </c>
+      <c r="O17">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="9">
+        <v>22</v>
+      </c>
+      <c r="B18" s="10">
         <v>0.124507161231884</v>
       </c>
       <c r="C18">
@@ -1648,23 +2019,43 @@
       <c r="D18">
         <v>79</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="10">
         <v>0.122332803542673</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="11">
         <v>0.29</v>
       </c>
       <c r="G18">
         <v>59</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="H18" s="5"/>
+      <c r="I18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="10">
+        <v>0.174686884057971</v>
+      </c>
+      <c r="K18" s="11">
+        <v>1.05</v>
+      </c>
+      <c r="L18">
+        <v>79</v>
+      </c>
+      <c r="M18" s="10">
+        <v>0.122332803542673</v>
+      </c>
+      <c r="N18" s="11">
+        <v>0.82</v>
+      </c>
+      <c r="O18">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="9">
+        <v>23</v>
+      </c>
+      <c r="B19" s="10">
         <v>0.0849943647342995</v>
       </c>
       <c r="C19">
@@ -1673,23 +2064,43 @@
       <c r="D19">
         <v>83</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="10">
         <v>0.0823268975442834</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="11">
         <v>0.25</v>
       </c>
       <c r="G19">
         <v>63</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="H19" s="5"/>
+      <c r="I19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="10">
+        <v>0.246383146135266</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0.73</v>
+      </c>
+      <c r="L19">
+        <v>83</v>
+      </c>
+      <c r="M19" s="10">
+        <v>0.0823268975442834</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0.69</v>
+      </c>
+      <c r="O19">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="9">
+        <v>24</v>
+      </c>
+      <c r="B20" s="10">
         <v>0.0872224194847021</v>
       </c>
       <c r="C20">
@@ -1698,23 +2109,43 @@
       <c r="D20">
         <v>78</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="10">
         <v>0.0855921980676329</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="11">
         <v>0.24</v>
       </c>
       <c r="G20">
         <v>58</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="11"/>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="H20" s="5"/>
+      <c r="I20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="10">
+        <v>0.127879593397746</v>
+      </c>
+      <c r="K20" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="L20">
+        <v>78</v>
+      </c>
+      <c r="M20" s="10">
+        <v>0.0855921980676329</v>
+      </c>
+      <c r="N20" s="11">
+        <v>0.58</v>
+      </c>
+      <c r="O20">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="9">
+        <v>25</v>
+      </c>
+      <c r="B21" s="10">
         <v>0.0634710489130435</v>
       </c>
       <c r="C21">
@@ -1723,23 +2154,43 @@
       <c r="D21">
         <v>76</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="10">
         <v>0.0625553862721417</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="11">
         <v>0.18</v>
       </c>
       <c r="G21">
         <v>56</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="11"/>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="H21" s="5"/>
+      <c r="I21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="10">
+        <v>0.106916861916264</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0.52</v>
+      </c>
+      <c r="L21">
+        <v>76</v>
+      </c>
+      <c r="M21" s="10">
+        <v>0.0625553862721417</v>
+      </c>
+      <c r="N21" s="11">
+        <v>0.52</v>
+      </c>
+      <c r="O21">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="9">
+        <v>26</v>
+      </c>
+      <c r="B22" s="10">
         <v>0.0665459454508857</v>
       </c>
       <c r="C22">
@@ -1748,23 +2199,43 @@
       <c r="D22">
         <v>71</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="10">
         <v>0.0652218558776168</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="11">
         <v>0.17</v>
       </c>
       <c r="G22">
         <v>51</v>
       </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="11"/>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="H22" s="5"/>
+      <c r="I22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="10">
+        <v>0.153085793075684</v>
+      </c>
+      <c r="K22" s="11">
+        <v>0.41</v>
+      </c>
+      <c r="L22">
+        <v>71</v>
+      </c>
+      <c r="M22" s="10">
+        <v>0.0652218558776168</v>
+      </c>
+      <c r="N22" s="11">
+        <v>0.39</v>
+      </c>
+      <c r="O22">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="9">
+        <v>27</v>
+      </c>
+      <c r="B23" s="10">
         <v>0.0564071372785829</v>
       </c>
       <c r="C23">
@@ -1773,23 +2244,43 @@
       <c r="D23">
         <v>80</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="10">
         <v>0.0551263490338164</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="11">
         <v>0.22</v>
       </c>
       <c r="G23">
         <v>60</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="11"/>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="H23" s="5"/>
+      <c r="I23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="10">
+        <v>0.141088407809984</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0.43</v>
+      </c>
+      <c r="L23">
+        <v>80</v>
+      </c>
+      <c r="M23" s="10">
+        <v>0.0551263490338164</v>
+      </c>
+      <c r="N23" s="11">
+        <v>0.41</v>
+      </c>
+      <c r="O23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="9">
+        <v>28</v>
+      </c>
+      <c r="B24" s="10">
         <v>0.0397015722624799</v>
       </c>
       <c r="C24">
@@ -1798,23 +2289,43 @@
       <c r="D24">
         <v>76</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="10">
         <v>0.0388553913043478</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="11">
         <v>0.12</v>
       </c>
       <c r="G24">
         <v>56</v>
       </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="11"/>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="H24" s="5"/>
+      <c r="I24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="10">
+        <v>0.144198101851852</v>
+      </c>
+      <c r="K24" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="L24">
+        <v>76</v>
+      </c>
+      <c r="M24" s="10">
+        <v>0.0388553913043478</v>
+      </c>
+      <c r="N24" s="11">
+        <v>0.39</v>
+      </c>
+      <c r="O24">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="9">
+        <v>29</v>
+      </c>
+      <c r="B25" s="10">
         <v>0.0402047256441224</v>
       </c>
       <c r="C25">
@@ -1823,23 +2334,43 @@
       <c r="D25">
         <v>75</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="10">
         <v>0.0389029754428341</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="11">
         <v>0.08</v>
       </c>
       <c r="G25">
         <v>55</v>
       </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="11"/>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="H25" s="5"/>
+      <c r="I25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="10">
+        <v>0.0818216686795491</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0.38</v>
+      </c>
+      <c r="L25">
+        <v>75</v>
+      </c>
+      <c r="M25" s="10">
+        <v>0.0389029754428341</v>
+      </c>
+      <c r="N25" s="11">
+        <v>0.36</v>
+      </c>
+      <c r="O25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="9">
+        <v>30</v>
+      </c>
+      <c r="B26" s="10">
         <v>0.0510595167069243</v>
       </c>
       <c r="C26">
@@ -1848,23 +2379,43 @@
       <c r="D26">
         <v>73</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="10">
         <v>0.0496219277375201</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="11">
         <v>0.22</v>
       </c>
       <c r="G26">
         <v>53</v>
       </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="11"/>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="H26" s="5"/>
+      <c r="I26" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="10">
+        <v>0.113764541062802</v>
+      </c>
+      <c r="K26" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="L26">
+        <v>73</v>
+      </c>
+      <c r="M26" s="10">
+        <v>0.0496219277375201</v>
+      </c>
+      <c r="N26" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="O26">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="9">
+        <v>31</v>
+      </c>
+      <c r="B27" s="10">
         <v>0.0411458321256039</v>
       </c>
       <c r="C27">
@@ -1873,23 +2424,43 @@
       <c r="D27">
         <v>83</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="10">
         <v>0.0400792520128824</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="11">
         <v>0.12</v>
       </c>
       <c r="G27">
         <v>63</v>
       </c>
-      <c r="I27" s="10"/>
-      <c r="J27" s="11"/>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="H27" s="5"/>
+      <c r="I27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="10">
+        <v>0.069583921095008</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0.37</v>
+      </c>
+      <c r="L27">
+        <v>83</v>
+      </c>
+      <c r="M27" s="10">
+        <v>0.0400792520128824</v>
+      </c>
+      <c r="N27" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="O27">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="9">
+        <v>32</v>
+      </c>
+      <c r="B28" s="10">
         <v>0.0353223572866345</v>
       </c>
       <c r="C28">
@@ -1898,23 +2469,43 @@
       <c r="D28">
         <v>80</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="10">
         <v>0.0350638206521739</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="11">
         <v>0.14</v>
       </c>
       <c r="G28">
         <v>60</v>
       </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="11"/>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="H28" s="5"/>
+      <c r="I28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="10">
+        <v>0.080260980273752</v>
+      </c>
+      <c r="K28" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="L28">
+        <v>80</v>
+      </c>
+      <c r="M28" s="10">
+        <v>0.0350638206521739</v>
+      </c>
+      <c r="N28" s="11">
+        <v>0.33</v>
+      </c>
+      <c r="O28">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="9">
+        <v>33</v>
+      </c>
+      <c r="B29" s="10">
         <v>0.0117993311191626</v>
       </c>
       <c r="C29">
@@ -1923,23 +2514,43 @@
       <c r="D29">
         <v>89</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="10">
         <v>0.0114216109098229</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="11">
         <v>0.06</v>
       </c>
       <c r="G29">
         <v>69</v>
       </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="11"/>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="H29" s="5"/>
+      <c r="I29" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="10">
+        <v>0.0391874114331723</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0.19</v>
+      </c>
+      <c r="L29">
+        <v>89</v>
+      </c>
+      <c r="M29" s="10">
+        <v>0.0114216109098229</v>
+      </c>
+      <c r="N29" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="O29">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="9">
+        <v>34</v>
+      </c>
+      <c r="B30" s="10">
         <v>0.0366518488325282</v>
       </c>
       <c r="C30">
@@ -1948,23 +2559,43 @@
       <c r="D30">
         <v>70</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="10">
         <v>0.0360445060386473</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="11">
         <v>0.13</v>
       </c>
       <c r="G30">
         <v>50</v>
       </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="11"/>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="H30" s="5"/>
+      <c r="I30" t="s">
+        <v>34</v>
+      </c>
+      <c r="J30" s="10">
+        <v>0.0394462882447665</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0.22</v>
+      </c>
+      <c r="L30">
+        <v>70</v>
+      </c>
+      <c r="M30" s="10">
+        <v>0.0360445060386473</v>
+      </c>
+      <c r="N30" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="O30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="9">
+        <v>35</v>
+      </c>
+      <c r="B31" s="10">
         <v>0.0177484643719807</v>
       </c>
       <c r="C31">
@@ -1973,23 +2604,43 @@
       <c r="D31">
         <v>78</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="10">
         <v>0.0174557342995169</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="11">
         <v>0.12</v>
       </c>
       <c r="G31">
         <v>58</v>
       </c>
-      <c r="I31" s="10"/>
-      <c r="J31" s="11"/>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="H31" s="5"/>
+      <c r="I31" t="s">
+        <v>35</v>
+      </c>
+      <c r="J31" s="10">
+        <v>0.0351186131239936</v>
+      </c>
+      <c r="K31" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="L31">
+        <v>78</v>
+      </c>
+      <c r="M31" s="10">
+        <v>0.0174557342995169</v>
+      </c>
+      <c r="N31" s="11">
+        <v>0.17</v>
+      </c>
+      <c r="O31">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="9">
+        <v>36</v>
+      </c>
+      <c r="B32" s="10">
         <v>0.0149039863123994</v>
       </c>
       <c r="C32">
@@ -1998,23 +2649,43 @@
       <c r="D32">
         <v>71</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="10">
         <v>0.014527479468599</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="11">
         <v>0.06</v>
       </c>
       <c r="G32">
         <v>51</v>
       </c>
-      <c r="I32" s="10"/>
-      <c r="J32" s="11"/>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="H32" s="5"/>
+      <c r="I32" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32" s="10">
+        <v>0.0319894685990338</v>
+      </c>
+      <c r="K32" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="L32">
+        <v>71</v>
+      </c>
+      <c r="M32" s="10">
+        <v>0.014527479468599</v>
+      </c>
+      <c r="N32" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="O32">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="9">
+        <v>37</v>
+      </c>
+      <c r="B33" s="10">
         <v>0.00331427133655395</v>
       </c>
       <c r="C33">
@@ -2023,22 +2694,758 @@
       <c r="D33">
         <v>68</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="10">
         <v>0.00323220430756844</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="11">
         <v>0.1</v>
       </c>
       <c r="G33">
         <v>58</v>
       </c>
-      <c r="I33" s="10"/>
-      <c r="J33" s="11"/>
+      <c r="H33" s="5"/>
+      <c r="I33" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33" s="10">
+        <v>0.0101210789049919</v>
+      </c>
+      <c r="K33" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="L33">
+        <v>68</v>
+      </c>
+      <c r="M33" s="10">
+        <v>0.00323220430756844</v>
+      </c>
+      <c r="N33" s="11">
+        <v>0.11</v>
+      </c>
+      <c r="O33">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="8:8">
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="8:8">
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="8:8">
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="8:8">
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="8:8">
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="8:8">
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="8:8">
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="8:8">
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="2:12">
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+    </row>
+    <row r="44" ht="15" spans="2:12">
+      <c r="B44" s="12"/>
+      <c r="C44" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="15">
+        <v>667427.792</v>
+      </c>
+      <c r="E44" s="16">
+        <f>D44*8/3974400</f>
+        <v>1.34345368760064</v>
+      </c>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="12"/>
+    </row>
+    <row r="45" ht="15" spans="2:12">
+      <c r="B45" s="12"/>
+      <c r="C45" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="15">
+        <v>305066.256</v>
+      </c>
+      <c r="E45" s="16">
+        <f t="shared" ref="E45:E55" si="0">D45*8/3974400</f>
+        <v>0.614062512077295</v>
+      </c>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="12"/>
+    </row>
+    <row r="46" ht="15" spans="2:12">
+      <c r="B46" s="12"/>
+      <c r="C46" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="15">
+        <v>202626.828</v>
+      </c>
+      <c r="E46" s="16">
+        <f t="shared" si="0"/>
+        <v>0.407863985507246</v>
+      </c>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="12"/>
+    </row>
+    <row r="47" ht="15" spans="2:12">
+      <c r="B47" s="12"/>
+      <c r="C47" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="15">
+        <v>255908.138</v>
+      </c>
+      <c r="E47" s="16">
+        <f t="shared" si="0"/>
+        <v>0.515112999194847</v>
+      </c>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="12"/>
+    </row>
+    <row r="48" ht="15" spans="2:12">
+      <c r="B48" s="12"/>
+      <c r="C48" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="15">
+        <v>189368.496</v>
+      </c>
+      <c r="E48" s="16">
+        <f t="shared" si="0"/>
+        <v>0.38117652173913</v>
+      </c>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="12"/>
+    </row>
+    <row r="49" ht="15" spans="2:12">
+      <c r="B49" s="12"/>
+      <c r="C49" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="15">
+        <v>232436.9</v>
+      </c>
+      <c r="E49" s="16">
+        <f t="shared" si="0"/>
+        <v>0.467868156199678</v>
+      </c>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="12"/>
+    </row>
+    <row r="50" ht="15" spans="2:12">
+      <c r="B50" s="12"/>
+      <c r="C50" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="15">
+        <v>188227.28</v>
+      </c>
+      <c r="E50" s="16">
+        <f t="shared" si="0"/>
+        <v>0.378879388083736</v>
+      </c>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="12"/>
+    </row>
+    <row r="51" ht="15" spans="2:12">
+      <c r="B51" s="12"/>
+      <c r="C51" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="15">
+        <v>228137.122</v>
+      </c>
+      <c r="E51" s="16">
+        <f t="shared" si="0"/>
+        <v>0.459213208534622</v>
+      </c>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="12"/>
+    </row>
+    <row r="52" ht="15" spans="2:12">
+      <c r="B52" s="12"/>
+      <c r="C52" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="15">
+        <v>163418.82</v>
+      </c>
+      <c r="E52" s="16">
+        <f t="shared" si="0"/>
+        <v>0.328942874396135</v>
+      </c>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="12"/>
+    </row>
+    <row r="53" ht="15" spans="2:12">
+      <c r="B53" s="12"/>
+      <c r="C53" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="15">
+        <v>166141.145</v>
+      </c>
+      <c r="E53" s="16">
+        <f t="shared" si="0"/>
+        <v>0.334422594605475</v>
+      </c>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="12"/>
+    </row>
+    <row r="54" ht="15" spans="2:12">
+      <c r="B54" s="12"/>
+      <c r="C54" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="15">
+        <v>148072.664</v>
+      </c>
+      <c r="E54" s="16">
+        <f t="shared" si="0"/>
+        <v>0.298052866344605</v>
+      </c>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="12"/>
+    </row>
+    <row r="55" ht="15" spans="2:12">
+      <c r="B55" s="12"/>
+      <c r="C55" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="15">
+        <v>128840.578</v>
+      </c>
+      <c r="E55" s="16">
+        <f t="shared" si="0"/>
+        <v>0.259340938003221</v>
+      </c>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="12"/>
+    </row>
+    <row r="56" ht="15" spans="2:12">
+      <c r="B56" s="12"/>
+      <c r="C56" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="15">
+        <v>153135.592</v>
+      </c>
+      <c r="E56" s="16">
+        <f t="shared" ref="E56:E74" si="1">D56*8/3974400</f>
+        <v>0.308243945249597</v>
+      </c>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="12"/>
+    </row>
+    <row r="57" ht="15" spans="2:12">
+      <c r="B57" s="12"/>
+      <c r="C57" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="15">
+        <v>136392.173</v>
+      </c>
+      <c r="E57" s="16">
+        <f t="shared" si="1"/>
+        <v>0.274541411030596</v>
+      </c>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="12"/>
+    </row>
+    <row r="58" ht="15" spans="2:12">
+      <c r="B58" s="12"/>
+      <c r="C58" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="15">
+        <v>132759.416</v>
+      </c>
+      <c r="E58" s="16">
+        <f t="shared" si="1"/>
+        <v>0.267229098228663</v>
+      </c>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="12"/>
+    </row>
+    <row r="59" ht="15" spans="2:12">
+      <c r="B59" s="12"/>
+      <c r="C59" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="15">
+        <v>86784.444</v>
+      </c>
+      <c r="E59" s="16">
+        <f t="shared" si="1"/>
+        <v>0.174686884057971</v>
+      </c>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="12"/>
+    </row>
+    <row r="60" ht="15" spans="2:12">
+      <c r="B60" s="12"/>
+      <c r="C60" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="15">
+        <v>122403.147</v>
+      </c>
+      <c r="E60" s="16">
+        <f t="shared" si="1"/>
+        <v>0.246383146135266</v>
+      </c>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="12"/>
+    </row>
+    <row r="61" ht="15" spans="2:12">
+      <c r="B61" s="12"/>
+      <c r="C61" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" s="15">
+        <v>63530.582</v>
+      </c>
+      <c r="E61" s="16">
+        <f t="shared" si="1"/>
+        <v>0.127879593397746</v>
+      </c>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="12"/>
+    </row>
+    <row r="62" ht="15" spans="2:12">
+      <c r="B62" s="12"/>
+      <c r="C62" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="15">
+        <v>53116.297</v>
+      </c>
+      <c r="E62" s="16">
+        <f t="shared" si="1"/>
+        <v>0.106916861916264</v>
+      </c>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="12"/>
+    </row>
+    <row r="63" ht="15" spans="2:12">
+      <c r="B63" s="12"/>
+      <c r="C63" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="15">
+        <v>76053.022</v>
+      </c>
+      <c r="E63" s="16">
+        <f t="shared" si="1"/>
+        <v>0.153085793075684</v>
+      </c>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="12"/>
+    </row>
+    <row r="64" ht="15" spans="2:12">
+      <c r="B64" s="12"/>
+      <c r="C64" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" s="15">
+        <v>70092.721</v>
+      </c>
+      <c r="E64" s="16">
+        <f t="shared" si="1"/>
+        <v>0.141088407809984</v>
+      </c>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="12"/>
+    </row>
+    <row r="65" ht="15" spans="2:12">
+      <c r="B65" s="12"/>
+      <c r="C65" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" s="15">
+        <v>71637.617</v>
+      </c>
+      <c r="E65" s="16">
+        <f t="shared" si="1"/>
+        <v>0.144198101851852</v>
+      </c>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="12"/>
+    </row>
+    <row r="66" ht="15" spans="2:12">
+      <c r="B66" s="12"/>
+      <c r="C66" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" s="15">
+        <v>40649.005</v>
+      </c>
+      <c r="E66" s="16">
+        <f t="shared" si="1"/>
+        <v>0.0818216686795491</v>
+      </c>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="12"/>
+    </row>
+    <row r="67" ht="15" spans="2:12">
+      <c r="B67" s="12"/>
+      <c r="C67" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" s="15">
+        <v>56518.224</v>
+      </c>
+      <c r="E67" s="16">
+        <f t="shared" si="1"/>
+        <v>0.113764541062802</v>
+      </c>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="12"/>
+    </row>
+    <row r="68" ht="15" spans="2:12">
+      <c r="B68" s="12"/>
+      <c r="C68" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68" s="15">
+        <v>34569.292</v>
+      </c>
+      <c r="E68" s="16">
+        <f t="shared" si="1"/>
+        <v>0.069583921095008</v>
+      </c>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="12"/>
+    </row>
+    <row r="69" ht="15" spans="2:12">
+      <c r="B69" s="12"/>
+      <c r="C69" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D69" s="15">
+        <v>39873.655</v>
+      </c>
+      <c r="E69" s="16">
+        <f t="shared" si="1"/>
+        <v>0.080260980273752</v>
+      </c>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="12"/>
+    </row>
+    <row r="70" ht="15" spans="2:12">
+      <c r="B70" s="12"/>
+      <c r="C70" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" s="15">
+        <v>19468.306</v>
+      </c>
+      <c r="E70" s="16">
+        <f t="shared" si="1"/>
+        <v>0.0391874114331723</v>
+      </c>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="12"/>
+    </row>
+    <row r="71" ht="15" spans="2:12">
+      <c r="B71" s="12"/>
+      <c r="C71" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" s="15">
+        <v>16616.116</v>
+      </c>
+      <c r="E71" s="16">
+        <f t="shared" si="1"/>
+        <v>0.0334462882447665</v>
+      </c>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="12"/>
+    </row>
+    <row r="72" ht="15" spans="2:12">
+      <c r="B72" s="12"/>
+      <c r="C72" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D72" s="15">
+        <v>17446.927</v>
+      </c>
+      <c r="E72" s="16">
+        <f t="shared" si="1"/>
+        <v>0.0351186131239936</v>
+      </c>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="12"/>
+    </row>
+    <row r="73" ht="15" spans="2:12">
+      <c r="B73" s="12"/>
+      <c r="C73" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" s="15">
+        <v>15892.368</v>
+      </c>
+      <c r="E73" s="16">
+        <f t="shared" si="1"/>
+        <v>0.0319894685990338</v>
+      </c>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="12"/>
+    </row>
+    <row r="74" ht="15" spans="2:12">
+      <c r="B74" s="12"/>
+      <c r="C74" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D74" s="15">
+        <v>5028.152</v>
+      </c>
+      <c r="E74" s="16">
+        <f t="shared" si="1"/>
+        <v>0.0101210789049919</v>
+      </c>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="12"/>
+    </row>
+    <row r="75" spans="4:10">
+      <c r="D75" s="19"/>
+      <c r="E75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="20"/>
+    </row>
+    <row r="76" spans="4:10">
+      <c r="D76" s="19"/>
+      <c r="E76" s="20"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="20"/>
+    </row>
+    <row r="77" spans="4:10">
+      <c r="D77" s="19"/>
+      <c r="E77" s="20"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="20"/>
+    </row>
+    <row r="78" spans="4:5">
+      <c r="D78" s="19"/>
+      <c r="E78" s="20"/>
+    </row>
+    <row r="79" spans="4:5">
+      <c r="D79" s="19"/>
+      <c r="E79" s="20"/>
+    </row>
+    <row r="80" spans="4:5">
+      <c r="D80" s="19"/>
+      <c r="E80" s="20"/>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="20"/>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="20"/>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
